--- a/biology/Médecine/Clinique_de_Champagne_de_Reims/Clinique_de_Champagne_de_Reims.xlsx
+++ b/biology/Médecine/Clinique_de_Champagne_de_Reims/Clinique_de_Champagne_de_Reims.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La clinique de Champagne de Reims est un établissement implanté à Reims, en France.
@@ -513,7 +525,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La clinique de Champagne est située 1-3-5  rue de l'Université à Reims dans la Marne en France.
 </t>
@@ -544,12 +558,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Clinique Chirurgicale mutualiste, ou clinique de Champagne, a été construit sur l’emplacement de l’ancien hôtel  « le Régina Palace Hôtel » par l’architecte Jean Urbain (1920-1960)[1].
-Elle ouvre en 1956[2].
-Les bâtiments de la clinique ont été repris par le CHU de Reims en 1990[3].
-En décembre 2019, la maison médicale de garde (MMG), créé en 2000, est transférée au CHU de Reims rue Cognacq-Jay[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Clinique Chirurgicale mutualiste, ou clinique de Champagne, a été construit sur l’emplacement de l’ancien hôtel  « le Régina Palace Hôtel » par l’architecte Jean Urbain (1920-1960).
+Elle ouvre en 1956.
+Les bâtiments de la clinique ont été repris par le CHU de Reims en 1990.
+En décembre 2019, la maison médicale de garde (MMG), créé en 2000, est transférée au CHU de Reims rue Cognacq-Jay.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Entités actuelles présentes à la clinique de Champagne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La Clinique de Champagne accueille des activités médico-psychologiques et des réseaux de
 santé :
